--- a/data/Book2_copy.xlsx
+++ b/data/Book2_copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anushkavarshney/Documents/code/vibhore-sir/final/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anushkavarshney/Documents/code/vibhore-sir/Project-under-Vibhor-sir/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EF33C9-6982-BD47-815C-3CA38DAEAE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD5DBB4-F2B3-E749-A89A-D3247E3DD4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{DE70F9F1-4221-DF46-9AF4-48644267568C}"/>
   </bookViews>
@@ -86,12 +86,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,10 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9AEC2C-AAC7-104A-8385-7235EFD1F3DB}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,13 +477,14 @@
         <v>6.27</v>
       </c>
       <c r="E2" s="2">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="F2" s="2">
         <v>10.879999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>51.77</v>
+        <f>SUM(A2:F2)</f>
+        <v>55.370000000000005</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="2"/>
@@ -494,18 +503,16 @@
         <v>6.35</v>
       </c>
       <c r="E3" s="2">
-        <v>11.95</v>
+        <v>11.5</v>
       </c>
       <c r="F3" s="2">
         <v>10.899999999999999</v>
       </c>
       <c r="G3" s="2">
-        <v>51.55</v>
+        <f t="shared" ref="G3:G21" si="0">SUM(A3:F3)</f>
+        <v>55.3</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -524,10 +531,11 @@
         <v>11.75</v>
       </c>
       <c r="F4" s="2">
-        <v>5.8000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G4" s="2">
-        <v>45.85</v>
+        <f t="shared" si="0"/>
+        <v>53.05</v>
       </c>
       <c r="H4" s="2"/>
       <c r="J4" s="2"/>
@@ -549,10 +557,11 @@
         <v>11.6</v>
       </c>
       <c r="F5" s="2">
-        <v>6.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>45.61</v>
+        <f t="shared" si="0"/>
+        <v>53.81</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -576,7 +585,8 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" s="2">
-        <v>47.29</v>
+        <f t="shared" si="0"/>
+        <v>51.490000000000009</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -600,7 +610,8 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G7" s="2">
-        <v>50.77</v>
+        <f t="shared" si="0"/>
+        <v>54.97</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -618,13 +629,14 @@
         <v>6.98</v>
       </c>
       <c r="E8" s="2">
-        <v>12.129999999999999</v>
+        <v>11.13</v>
       </c>
       <c r="F8" s="2">
         <v>10.199999999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>53.2</v>
+        <f t="shared" si="0"/>
+        <v>56.400000000000006</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -648,7 +660,8 @@
         <v>11.2</v>
       </c>
       <c r="G9" s="2">
-        <v>52.72</v>
+        <f t="shared" si="0"/>
+        <v>56.92</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -672,57 +685,60 @@
         <v>12.2</v>
       </c>
       <c r="G10" s="2">
-        <v>53.76</v>
+        <f t="shared" si="0"/>
+        <v>57.959999999999994</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2.0700000000000003</v>
+        <v>1.73</v>
       </c>
       <c r="B11" s="2">
-        <v>10.73</v>
+        <v>11.370000000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>13.73</v>
+        <v>14.370000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>6.23</v>
+        <v>6.87</v>
       </c>
       <c r="E11" s="2">
-        <v>12.05</v>
+        <v>11.73</v>
       </c>
       <c r="F11" s="2">
         <v>13.2</v>
       </c>
       <c r="G11" s="2">
-        <v>53.81</v>
+        <f t="shared" si="0"/>
+        <v>59.27000000000001</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1.73</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11.370000000000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14.370000000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6.87</v>
-      </c>
-      <c r="E12" s="2">
-        <v>11.73</v>
-      </c>
-      <c r="F12" s="2">
-        <v>14.2</v>
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>13.98</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.47</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11.59</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9.1</v>
       </c>
       <c r="G12" s="2">
-        <v>56.07</v>
-      </c>
-      <c r="H12" s="2"/>
+        <f>SUM(A12:F12)</f>
+        <v>54.000000000000007</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -741,10 +757,11 @@
         <v>11.93</v>
       </c>
       <c r="F13" s="2">
-        <v>6.1999999999999993</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2">
-        <v>48.8</v>
+        <f t="shared" si="0"/>
+        <v>57.800000000000004</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -765,10 +782,11 @@
         <v>12.48</v>
       </c>
       <c r="F14" s="2">
-        <v>5.1999999999999993</v>
+        <v>13.2</v>
       </c>
       <c r="G14" s="2">
-        <v>46.5</v>
+        <f t="shared" si="0"/>
+        <v>58.7</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -789,10 +807,11 @@
         <v>12.14</v>
       </c>
       <c r="F15" s="2">
-        <v>9.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G15" s="2">
-        <v>50.5</v>
+        <f t="shared" si="0"/>
+        <v>55.7</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -813,10 +832,11 @@
         <v>12.18</v>
       </c>
       <c r="F16" s="2">
-        <v>10.199999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="G16" s="2">
-        <v>53.09</v>
+        <f t="shared" si="0"/>
+        <v>60.290000000000006</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -840,7 +860,8 @@
         <v>11.2</v>
       </c>
       <c r="G17" s="2">
-        <v>50.81</v>
+        <f t="shared" si="0"/>
+        <v>55.010000000000005</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -861,10 +882,11 @@
         <v>11.9</v>
       </c>
       <c r="F18" s="2">
-        <v>8.1999999999999993</v>
+        <v>13.2</v>
       </c>
       <c r="G18" s="2">
-        <v>48.04</v>
+        <f t="shared" si="0"/>
+        <v>57.239999999999995</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -885,10 +907,11 @@
         <v>12.1</v>
       </c>
       <c r="F19" s="2">
-        <v>7.1999999999999993</v>
+        <v>13.2</v>
       </c>
       <c r="G19" s="2">
-        <v>49.44</v>
+        <f t="shared" si="0"/>
+        <v>59.64</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -909,10 +932,11 @@
         <v>12.280000000000001</v>
       </c>
       <c r="F20" s="2">
-        <v>6.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>49.17</v>
+        <f t="shared" si="0"/>
+        <v>57.370000000000005</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -933,10 +957,11 @@
         <v>11.9</v>
       </c>
       <c r="F21" s="2">
-        <v>4.1999999999999993</v>
+        <v>13.2</v>
       </c>
       <c r="G21" s="2">
-        <v>45.06</v>
+        <f t="shared" si="0"/>
+        <v>58.260000000000005</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -952,28 +977,28 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <f t="shared" ref="A23:D23" si="0">AVERAGE(A2:A21)</f>
-        <v>1.9605000000000001</v>
+        <f t="shared" ref="A23:D23" si="1">AVERAGE(A2:A21)</f>
+        <v>1.9550000000000001</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>10.995000000000001</v>
+        <f t="shared" si="1"/>
+        <v>11.003500000000001</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>13.984500000000001</v>
+        <f t="shared" si="1"/>
+        <v>13.997</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>6.4760000000000009</v>
+        <f t="shared" si="1"/>
+        <v>6.4879999999999995</v>
       </c>
       <c r="E23" s="2">
         <f>AVERAGE(E2:E21)</f>
-        <v>11.9755</v>
+        <v>11.85</v>
       </c>
       <c r="F23" s="2">
         <f>AVERAGE(F2:F21)</f>
-        <v>8.9989999999999988</v>
+        <v>11.133999999999997</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
